--- a/Scommesse.xlsx
+++ b/Scommesse.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView activeTab="1" windowHeight="8010" windowWidth="14805" xWindow="240" yWindow="105"/>
   </bookViews>
   <sheets>
-    <sheet name="Risultati" sheetId="5" r:id="rId1"/>
-    <sheet name="Quote" sheetId="1" r:id="rId2"/>
-    <sheet name="Fixtures" sheetId="6" r:id="rId3"/>
+    <sheet name="Risultati" r:id="rId1" sheetId="5"/>
+    <sheet name="Quote" r:id="rId2" sheetId="1"/>
+    <sheet name="Fixtures" r:id="rId3" sheetId="6"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Risultati!#REF!</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Risultati!#REF!</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="264">
   <si>
     <t>1. FC Union Berlin</t>
   </si>
@@ -178,12 +178,646 @@
   </si>
   <si>
     <t>24-feb-2017 20.45.00</t>
+  </si>
+  <si>
+    <t>4-mar-2017 13.00.00</t>
+  </si>
+  <si>
+    <t>Karlsruher SC</t>
+  </si>
+  <si>
+    <t>Hannover 96</t>
+  </si>
+  <si>
+    <t>FC St. Pauli</t>
+  </si>
+  <si>
+    <t>CD Leganes</t>
+  </si>
+  <si>
+    <t>Granada CF</t>
+  </si>
+  <si>
+    <t>4-mar-2017 13.30.00</t>
+  </si>
+  <si>
+    <t>Manchester United FC</t>
+  </si>
+  <si>
+    <t>AFC Bournemouth</t>
+  </si>
+  <si>
+    <t>4-mar-2017 15.00.00</t>
+  </si>
+  <si>
+    <t>AS Roma</t>
+  </si>
+  <si>
+    <t>SSC Napoli</t>
+  </si>
+  <si>
+    <t>4-mar-2017 15.30.00</t>
+  </si>
+  <si>
+    <t>Borussia Dortmund</t>
+  </si>
+  <si>
+    <t>Bayer Leverkusen</t>
+  </si>
+  <si>
+    <t>TSG 1899 Hoffenheim</t>
+  </si>
+  <si>
+    <t>FC Ingolstadt 04</t>
+  </si>
+  <si>
+    <t>1. FC Köln</t>
+  </si>
+  <si>
+    <t>FC Bayern München</t>
+  </si>
+  <si>
+    <t>1. FSV Mainz 05</t>
+  </si>
+  <si>
+    <t>SV Darmstadt 98</t>
+  </si>
+  <si>
+    <t>4-mar-2017 16.00.00</t>
+  </si>
+  <si>
+    <t>Stoke City FC</t>
+  </si>
+  <si>
+    <t>Middlesbrough FC</t>
+  </si>
+  <si>
+    <t>Leicester City FC</t>
+  </si>
+  <si>
+    <t>Hull City FC</t>
+  </si>
+  <si>
+    <t>Swansea City FC</t>
+  </si>
+  <si>
+    <t>Burnley FC</t>
+  </si>
+  <si>
+    <t>Watford FC</t>
+  </si>
+  <si>
+    <t>Southampton FC</t>
+  </si>
+  <si>
+    <t>West Bromwich Albion FC</t>
+  </si>
+  <si>
+    <t>Crystal Palace FC</t>
+  </si>
+  <si>
+    <t>Ipswich Town</t>
+  </si>
+  <si>
+    <t>Brentford FC</t>
+  </si>
+  <si>
+    <t>Blackburn Rovers FC</t>
+  </si>
+  <si>
+    <t>Wigan Athletic FC</t>
+  </si>
+  <si>
+    <t>Bristol City</t>
+  </si>
+  <si>
+    <t>Burton Albion FC</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers FC</t>
+  </si>
+  <si>
+    <t>Queens Park Rangers</t>
+  </si>
+  <si>
+    <t>Cardiff City FC</t>
+  </si>
+  <si>
+    <t>Rotherham United</t>
+  </si>
+  <si>
+    <t>Aston Villa FC</t>
+  </si>
+  <si>
+    <t>Nottingham Forest</t>
+  </si>
+  <si>
+    <t>Brighton &amp; Hove Albion</t>
+  </si>
+  <si>
+    <t>Derby County</t>
+  </si>
+  <si>
+    <t>Barnsley FC</t>
+  </si>
+  <si>
+    <t>Fulham FC</t>
+  </si>
+  <si>
+    <t>Preston North End</t>
+  </si>
+  <si>
+    <t>Sheffield Wednesday</t>
+  </si>
+  <si>
+    <t>Norwich City FC</t>
+  </si>
+  <si>
+    <t>Bury FC</t>
+  </si>
+  <si>
+    <t>Gillingham FC</t>
+  </si>
+  <si>
+    <t>Scunthorpe United FC</t>
+  </si>
+  <si>
+    <t>Fleetwood Town FC</t>
+  </si>
+  <si>
+    <t>Bradford City AFC</t>
+  </si>
+  <si>
+    <t>Peterborough United FC</t>
+  </si>
+  <si>
+    <t>Southend United FC</t>
+  </si>
+  <si>
+    <t>Port Vale FC</t>
+  </si>
+  <si>
+    <t>Rochdale AFC</t>
+  </si>
+  <si>
+    <t>Sheffield United FC</t>
+  </si>
+  <si>
+    <t>Millwall FC</t>
+  </si>
+  <si>
+    <t>Milton Keynes Dons</t>
+  </si>
+  <si>
+    <t>Walsall FC</t>
+  </si>
+  <si>
+    <t>Oldham Athletic AFC</t>
+  </si>
+  <si>
+    <t>Shrewsbury Town FC</t>
+  </si>
+  <si>
+    <t>Coventry City FC</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers FC</t>
+  </si>
+  <si>
+    <t>AFC Wimbledon</t>
+  </si>
+  <si>
+    <t>Oxford United</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Swindon Town FC</t>
+  </si>
+  <si>
+    <t>Chesterfield FC</t>
+  </si>
+  <si>
+    <t>4-mar-2017 16.15.00</t>
+  </si>
+  <si>
+    <t>SD Eibar</t>
+  </si>
+  <si>
+    <t>Real Madrid CF</t>
+  </si>
+  <si>
+    <t>4-mar-2017 17.00.00</t>
+  </si>
+  <si>
+    <t>Paris Saint-Germain</t>
+  </si>
+  <si>
+    <t>AS Nancy</t>
+  </si>
+  <si>
+    <t>Sporting Braga</t>
+  </si>
+  <si>
+    <t>FC Arouca</t>
+  </si>
+  <si>
+    <t>4-mar-2017 18.00.00</t>
+  </si>
+  <si>
+    <t>Rayo Vallecano de Madrid</t>
+  </si>
+  <si>
+    <t>Girona FC</t>
+  </si>
+  <si>
+    <t>Getafe CF</t>
+  </si>
+  <si>
+    <t>UC Sampdoria</t>
+  </si>
+  <si>
+    <t>Pescara Calcio</t>
+  </si>
+  <si>
+    <t>4-mar-2017 18.30.00</t>
+  </si>
+  <si>
+    <t>Liverpool FC</t>
+  </si>
+  <si>
+    <t>Arsenal FC</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Newcastle United FC</t>
+  </si>
+  <si>
+    <t>Bor. Mönchengladbach</t>
+  </si>
+  <si>
+    <t>FC Schalke 04</t>
+  </si>
+  <si>
+    <t>FC Twente Enschede</t>
+  </si>
+  <si>
+    <t>Willem II Tilburg</t>
+  </si>
+  <si>
+    <t>Villarreal CF</t>
+  </si>
+  <si>
+    <t>RCD Espanyol</t>
+  </si>
+  <si>
+    <t>4-mar-2017 19.15.00</t>
+  </si>
+  <si>
+    <t>FC Porto</t>
+  </si>
+  <si>
+    <t>Nacional Funchal</t>
+  </si>
+  <si>
+    <t>4-mar-2017 19.45.00</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Roda JC Kerkrade</t>
+  </si>
+  <si>
+    <t>4-mar-2017 20.00.00</t>
+  </si>
+  <si>
+    <t>SC Bastia</t>
+  </si>
+  <si>
+    <t>AS Saint-Étienne</t>
+  </si>
+  <si>
+    <t>SM Caen</t>
+  </si>
+  <si>
+    <t>Angers SCO</t>
+  </si>
+  <si>
+    <t>FC Metz</t>
+  </si>
+  <si>
+    <t>Stade Rennais FC</t>
+  </si>
+  <si>
+    <t>EA Guingamp</t>
+  </si>
+  <si>
+    <t>Cádiz CF</t>
+  </si>
+  <si>
+    <t>4-mar-2017 20.45.00</t>
+  </si>
+  <si>
+    <t>PEC Zwolle</t>
+  </si>
+  <si>
+    <t>Vitesse Arnhem</t>
+  </si>
+  <si>
+    <t>FC Barcelona</t>
+  </si>
+  <si>
+    <t>RC Celta de Vigo</t>
+  </si>
+  <si>
+    <t>AC Milan</t>
+  </si>
+  <si>
+    <t>AC Chievo Verona</t>
+  </si>
+  <si>
+    <t>4-mar-2017 21.30.00</t>
+  </si>
+  <si>
+    <t>Feirense</t>
+  </si>
+  <si>
+    <t>SL Benfica</t>
+  </si>
+  <si>
+    <t>5-mar-2017 12.00.00</t>
+  </si>
+  <si>
+    <t>Sporting Gijón</t>
+  </si>
+  <si>
+    <t>RC Deportivo La Coruna</t>
+  </si>
+  <si>
+    <t>UCAM Murcia</t>
+  </si>
+  <si>
+    <t>RCD Mallorca</t>
+  </si>
+  <si>
+    <t>5-mar-2017 12.30.00</t>
+  </si>
+  <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
+    <t>Excelsior</t>
+  </si>
+  <si>
+    <t>Sparta Rotterdam</t>
+  </si>
+  <si>
+    <t>Feyenoord Rotterdam</t>
+  </si>
+  <si>
+    <t>Atalanta BC</t>
+  </si>
+  <si>
+    <t>ACF Fiorentina</t>
+  </si>
+  <si>
+    <t>5-mar-2017 12.45.00</t>
+  </si>
+  <si>
+    <t>FC Paços de Ferreira</t>
+  </si>
+  <si>
+    <t>CD Tondela</t>
+  </si>
+  <si>
+    <t>5-mar-2017 13.30.00</t>
+  </si>
+  <si>
+    <t>Arminia Bielefeld</t>
+  </si>
+  <si>
+    <t>Erzgebirge Aue</t>
+  </si>
+  <si>
+    <t>1. FC Nürnberg</t>
+  </si>
+  <si>
+    <t>1. FC Heidenheim 1846</t>
+  </si>
+  <si>
+    <t>SV Sandhausen</t>
+  </si>
+  <si>
+    <t>5-mar-2017 14.30.00</t>
+  </si>
+  <si>
+    <t>Tottenham Hotspur FC</t>
+  </si>
+  <si>
+    <t>Everton FC</t>
+  </si>
+  <si>
+    <t>FC Utrecht</t>
+  </si>
+  <si>
+    <t>ADO Den Haag</t>
+  </si>
+  <si>
+    <t>FC Groningen</t>
+  </si>
+  <si>
+    <t>Ajax Amsterdam</t>
+  </si>
+  <si>
+    <t>5-mar-2017 15.00.00</t>
+  </si>
+  <si>
+    <t>FC Lorient</t>
+  </si>
+  <si>
+    <t>Olympique de Marseille</t>
+  </si>
+  <si>
+    <t>FC Crotone</t>
+  </si>
+  <si>
+    <t>US Sassuolo Calcio</t>
+  </si>
+  <si>
+    <t>Cagliari Calcio</t>
+  </si>
+  <si>
+    <t>FC Internazionale Milano</t>
+  </si>
+  <si>
+    <t>Empoli FC</t>
+  </si>
+  <si>
+    <t>Genoa CFC</t>
+  </si>
+  <si>
+    <t>Torino FC</t>
+  </si>
+  <si>
+    <t>US Cittá di Palermo</t>
+  </si>
+  <si>
+    <t>Udinese Calcio</t>
+  </si>
+  <si>
+    <t>Juventus Turin</t>
+  </si>
+  <si>
+    <t>5-mar-2017 15.30.00</t>
+  </si>
+  <si>
+    <t>Eintracht Frankfurt</t>
+  </si>
+  <si>
+    <t>SC Freiburg</t>
+  </si>
+  <si>
+    <t>5-mar-2017 16.00.00</t>
+  </si>
+  <si>
+    <t>Huesca</t>
+  </si>
+  <si>
+    <t>Real Valladolid</t>
+  </si>
+  <si>
+    <t>5-mar-2017 16.15.00</t>
+  </si>
+  <si>
+    <t>Club Atlético de Madrid</t>
+  </si>
+  <si>
+    <t>Valencia CF</t>
+  </si>
+  <si>
+    <t>5-mar-2017 16.45.00</t>
+  </si>
+  <si>
+    <t>NEC Nijmegen</t>
+  </si>
+  <si>
+    <t>Heracles Almelo</t>
+  </si>
+  <si>
+    <t>5-mar-2017 17.00.00</t>
+  </si>
+  <si>
+    <t>Sunderland AFC</t>
+  </si>
+  <si>
+    <t>Manchester City FC</t>
+  </si>
+  <si>
+    <t>Maritimo Funchal</t>
+  </si>
+  <si>
+    <t>Vitoria Setubal</t>
+  </si>
+  <si>
+    <t>5-mar-2017 17.30.00</t>
+  </si>
+  <si>
+    <t>Hamburger SV</t>
+  </si>
+  <si>
+    <t>Hertha BSC</t>
+  </si>
+  <si>
+    <t>5-mar-2017 18.00.00</t>
+  </si>
+  <si>
+    <t>CD Lugo</t>
+  </si>
+  <si>
+    <t>UD Almeria</t>
+  </si>
+  <si>
+    <t>Gimnàstic de Tarragona</t>
+  </si>
+  <si>
+    <t>Córdoba CF</t>
+  </si>
+  <si>
+    <t>Levante UD</t>
+  </si>
+  <si>
+    <t>Elche FC</t>
+  </si>
+  <si>
+    <t>5-mar-2017 18.30.00</t>
+  </si>
+  <si>
+    <t>CA Osasuna</t>
+  </si>
+  <si>
+    <t>5-mar-2017 19.00.00</t>
+  </si>
+  <si>
+    <t>C.F. Os Belenenses</t>
+  </si>
+  <si>
+    <t>G.D. Chaves</t>
+  </si>
+  <si>
+    <t>5-mar-2017 20.00.00</t>
+  </si>
+  <si>
+    <t>Real Zaragoza</t>
+  </si>
+  <si>
+    <t>CD Numancia de Soria</t>
+  </si>
+  <si>
+    <t>5-mar-2017 20.45.00</t>
+  </si>
+  <si>
+    <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Málaga CF</t>
+  </si>
+  <si>
+    <t>Bologna FC</t>
+  </si>
+  <si>
+    <t>SS Lazio</t>
+  </si>
+  <si>
+    <t>5-mar-2017 21.00.00</t>
+  </si>
+  <si>
+    <t>AS Monaco FC</t>
+  </si>
+  <si>
+    <t>5-mar-2017 21.15.00</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -237,22 +871,119 @@
     </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0"/>
+    <xf applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0" borderId="1" fillId="2" fontId="1" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+  <cellXfs count="100">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="2" xfId="0"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normale" xfId="0"/>
     <cellStyle name="Normale 2" xfId="1"/>
     <cellStyle name="Nota 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -269,10 +1000,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -430,7 +1161,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -439,13 +1170,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -455,7 +1186,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -464,7 +1195,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -473,7 +1204,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -483,12 +1214,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -519,7 +1250,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -538,7 +1269,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -550,7 +1281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -559,11 +1290,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="25.85546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.5703125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="6" width="9.140625" style="2" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
+    <col min="4" max="6" style="2" width="9.140625" collapsed="true"/>
+    <col min="7" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -912,13 +1643,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -927,16 +1658,1957 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" collapsed="1"/>
-    <col min="3" max="6" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="2" width="9.140625" collapsed="true"/>
+    <col min="3" max="6" style="2" width="9.140625" collapsed="true"/>
   </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="n" s="3">
+        <v>2.05</v>
+      </c>
+      <c r="E1" t="n" s="3">
+        <v>3.2</v>
+      </c>
+      <c r="F1" t="n" s="3">
+        <v>2.05</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n" s="4">
+        <v>2.87</v>
+      </c>
+      <c r="E2" t="n" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="F2" t="n" s="4">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="E3" t="n" s="5">
+        <v>3.6</v>
+      </c>
+      <c r="F3" t="n" s="5">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="n" s="6">
+        <v>17.0</v>
+      </c>
+      <c r="E4" t="n" s="6">
+        <v>6.0</v>
+      </c>
+      <c r="F4" t="n" s="6">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n" s="7">
+        <v>3.3</v>
+      </c>
+      <c r="E5" t="n" s="7">
+        <v>2.9</v>
+      </c>
+      <c r="F5" t="n" s="7">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="n" s="8">
+        <v>3.4</v>
+      </c>
+      <c r="E6" t="n" s="8">
+        <v>2.9</v>
+      </c>
+      <c r="F6" t="n" s="8">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="n" s="9">
+        <v>3.5</v>
+      </c>
+      <c r="E7" t="n" s="9">
+        <v>3.4</v>
+      </c>
+      <c r="F7" t="n" s="9">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D8" t="n" s="10">
+        <v>5.0</v>
+      </c>
+      <c r="E8" t="n" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="F8" t="n" s="10">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="n" s="11">
+        <v>4.2</v>
+      </c>
+      <c r="E9" t="n" s="11">
+        <v>3.75</v>
+      </c>
+      <c r="F9" t="n" s="11">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="n" s="12">
+        <v>1.57</v>
+      </c>
+      <c r="E10" t="n" s="12">
+        <v>4.0</v>
+      </c>
+      <c r="F10" t="n" s="12">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" t="n" s="13">
+        <v>3.25</v>
+      </c>
+      <c r="E11" t="n" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="F11" t="n" s="13">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" t="n" s="14">
+        <v>4.33</v>
+      </c>
+      <c r="E12" t="n" s="14">
+        <v>3.9</v>
+      </c>
+      <c r="F12" t="n" s="14">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" t="n" s="15">
+        <v>4.0</v>
+      </c>
+      <c r="E13" t="n" s="15">
+        <v>3.5</v>
+      </c>
+      <c r="F13" t="n" s="15">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="n" s="16">
+        <v>3.7</v>
+      </c>
+      <c r="E14" t="n" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="F14" t="n" s="16">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" t="n" s="17">
+        <v>4.2</v>
+      </c>
+      <c r="E15" t="n" s="17">
+        <v>3.5</v>
+      </c>
+      <c r="F15" t="n" s="17">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="n" s="18">
+        <v>2.25</v>
+      </c>
+      <c r="E16" t="n" s="18">
+        <v>3.4</v>
+      </c>
+      <c r="F16" t="n" s="18">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" t="n" s="19">
+        <v>3.6</v>
+      </c>
+      <c r="E17" t="n" s="19">
+        <v>3.4</v>
+      </c>
+      <c r="F17" t="n" s="19">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" t="n" s="20">
+        <v>3.0</v>
+      </c>
+      <c r="E18" t="n" s="20">
+        <v>3.25</v>
+      </c>
+      <c r="F18" t="n" s="20">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="n" s="21">
+        <v>3.2</v>
+      </c>
+      <c r="E19" t="n" s="21">
+        <v>3.25</v>
+      </c>
+      <c r="F19" t="n" s="21">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="n" s="22">
+        <v>4.2</v>
+      </c>
+      <c r="E20" t="n" s="22">
+        <v>3.5</v>
+      </c>
+      <c r="F20" t="n" s="22">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21" t="n" s="23">
+        <v>3.1</v>
+      </c>
+      <c r="E21" t="n" s="23">
+        <v>3.3</v>
+      </c>
+      <c r="F21" t="n" s="23">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="n" s="24">
+        <v>2.75</v>
+      </c>
+      <c r="E22" t="n" s="24">
+        <v>3.2</v>
+      </c>
+      <c r="F22" t="n" s="24">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="n" s="25">
+        <v>1.8</v>
+      </c>
+      <c r="E23" t="n" s="25">
+        <v>3.6</v>
+      </c>
+      <c r="F23" t="n" s="25">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" t="n" s="26">
+        <v>1.9</v>
+      </c>
+      <c r="E24" t="n" s="26">
+        <v>3.4</v>
+      </c>
+      <c r="F24" t="n" s="26">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" t="n" s="27">
+        <v>5.0</v>
+      </c>
+      <c r="E25" t="n" s="27">
+        <v>3.6</v>
+      </c>
+      <c r="F25" t="n" s="27">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" t="n" s="28">
+        <v>4.8</v>
+      </c>
+      <c r="E26" t="n" s="28">
+        <v>3.6</v>
+      </c>
+      <c r="F26" t="n" s="28">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>74</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="n" s="29">
+        <v>3.1</v>
+      </c>
+      <c r="E27" t="n" s="29">
+        <v>3.5</v>
+      </c>
+      <c r="F27" t="n" s="29">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D28" t="n" s="30">
+        <v>3.1</v>
+      </c>
+      <c r="E28" t="n" s="30">
+        <v>3.4</v>
+      </c>
+      <c r="F28" t="n" s="30">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D29" t="n" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="E29" t="n" s="31">
+        <v>3.3</v>
+      </c>
+      <c r="F29" t="n" s="31">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B30" t="s">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s">
+        <v>110</v>
+      </c>
+      <c r="D30" t="n" s="32">
+        <v>5.0</v>
+      </c>
+      <c r="E30" t="n" s="32">
+        <v>3.7</v>
+      </c>
+      <c r="F30" t="n" s="32">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" t="n" s="33">
+        <v>6.5</v>
+      </c>
+      <c r="E31" t="n" s="33">
+        <v>4.0</v>
+      </c>
+      <c r="F31" t="n" s="33">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" t="s">
+        <v>114</v>
+      </c>
+      <c r="D32" t="n" s="34">
+        <v>1.8</v>
+      </c>
+      <c r="E32" t="n" s="34">
+        <v>3.6</v>
+      </c>
+      <c r="F32" t="n" s="34">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>115</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D33" t="n" s="35">
+        <v>3.4</v>
+      </c>
+      <c r="E33" t="n" s="35">
+        <v>3.3</v>
+      </c>
+      <c r="F33" t="n" s="35">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>117</v>
+      </c>
+      <c r="C34" t="s">
+        <v>118</v>
+      </c>
+      <c r="D34" t="n" s="36">
+        <v>3.25</v>
+      </c>
+      <c r="E34" t="n" s="36">
+        <v>3.2</v>
+      </c>
+      <c r="F34" t="n" s="36">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" t="n" s="37">
+        <v>3.4</v>
+      </c>
+      <c r="E35" t="n" s="37">
+        <v>3.4</v>
+      </c>
+      <c r="F35" t="n" s="37">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" t="n" s="38">
+        <v>4.2</v>
+      </c>
+      <c r="E36" t="n" s="38">
+        <v>3.4</v>
+      </c>
+      <c r="F36" t="n" s="38">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" t="n" s="39">
+        <v>3.6</v>
+      </c>
+      <c r="E37" t="n" s="39">
+        <v>3.4</v>
+      </c>
+      <c r="F37" t="n" s="39">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C38" t="s">
+        <v>126</v>
+      </c>
+      <c r="D38" t="n" s="40">
+        <v>2.8</v>
+      </c>
+      <c r="E38" t="n" s="40">
+        <v>3.25</v>
+      </c>
+      <c r="F38" t="n" s="40">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="n" s="41">
+        <v>4.33</v>
+      </c>
+      <c r="E39" t="n" s="41">
+        <v>3.6</v>
+      </c>
+      <c r="F39" t="n" s="41">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" t="n" s="42">
+        <v>1.57</v>
+      </c>
+      <c r="E40" t="n" s="42">
+        <v>4.2</v>
+      </c>
+      <c r="F40" t="n" s="42">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" t="s">
+        <v>134</v>
+      </c>
+      <c r="D41" t="n" s="43">
+        <v>21.0</v>
+      </c>
+      <c r="E41" t="n" s="43">
+        <v>8.0</v>
+      </c>
+      <c r="F41" t="n" s="43">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C42" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" t="n" s="44">
+        <v>6.5</v>
+      </c>
+      <c r="E42" t="n" s="44">
+        <v>3.5</v>
+      </c>
+      <c r="F42" t="n" s="44">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="n" s="45">
+        <v>4.33</v>
+      </c>
+      <c r="E43" t="n" s="45">
+        <v>3.3</v>
+      </c>
+      <c r="F43" t="n" s="45">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" t="s">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D44" t="n" s="46">
+        <v>4.0</v>
+      </c>
+      <c r="E44" t="n" s="46">
+        <v>3.3</v>
+      </c>
+      <c r="F44" t="n" s="46">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" t="s">
+        <v>142</v>
+      </c>
+      <c r="D45" t="n" s="47">
+        <v>5.0</v>
+      </c>
+      <c r="E45" t="n" s="47">
+        <v>4.2</v>
+      </c>
+      <c r="F45" t="n" s="47">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="n" s="48">
+        <v>3.7</v>
+      </c>
+      <c r="E46" t="n" s="48">
+        <v>3.6</v>
+      </c>
+      <c r="F46" t="n" s="48">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" t="n" s="49">
+        <v>2.45</v>
+      </c>
+      <c r="E47" t="n" s="49">
+        <v>3.25</v>
+      </c>
+      <c r="F47" t="n" s="49">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" t="s">
+        <v>149</v>
+      </c>
+      <c r="D48" t="n" s="50">
+        <v>2.75</v>
+      </c>
+      <c r="E48" t="n" s="50">
+        <v>3.4</v>
+      </c>
+      <c r="F48" t="n" s="50">
+        <v>2.75</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>143</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" t="n" s="51">
+        <v>4.33</v>
+      </c>
+      <c r="E49" t="n" s="51">
+        <v>3.4</v>
+      </c>
+      <c r="F49" t="n" s="51">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>143</v>
+      </c>
+      <c r="B50" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" t="n" s="52">
+        <v>5.0</v>
+      </c>
+      <c r="E50" t="n" s="52">
+        <v>3.75</v>
+      </c>
+      <c r="F50" t="n" s="52">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" t="s">
+        <v>155</v>
+      </c>
+      <c r="C51" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" t="n" s="53">
+        <v>29.0</v>
+      </c>
+      <c r="E51" t="n" s="53">
+        <v>8.0</v>
+      </c>
+      <c r="F51" t="n" s="53">
+        <v>29.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>157</v>
+      </c>
+      <c r="B52" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" t="s">
+        <v>159</v>
+      </c>
+      <c r="D52" t="n" s="54">
+        <v>26.0</v>
+      </c>
+      <c r="E52" t="n" s="54">
+        <v>9.0</v>
+      </c>
+      <c r="F52" t="n" s="54">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" t="s">
+        <v>162</v>
+      </c>
+      <c r="D53" t="n" s="55">
+        <v>2.37</v>
+      </c>
+      <c r="E53" t="n" s="55">
+        <v>3.0</v>
+      </c>
+      <c r="F53" t="n" s="55">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>160</v>
+      </c>
+      <c r="B54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" t="s">
+        <v>164</v>
+      </c>
+      <c r="D54" t="n" s="56">
+        <v>3.1</v>
+      </c>
+      <c r="E54" t="n" s="56">
+        <v>3.1</v>
+      </c>
+      <c r="F54" t="n" s="56">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>160</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>45</v>
+      </c>
+      <c r="D55" t="n" s="57">
+        <v>2.25</v>
+      </c>
+      <c r="E55" t="n" s="57">
+        <v>3.25</v>
+      </c>
+      <c r="F55" t="n" s="57">
+        <v>2.25</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>160</v>
+      </c>
+      <c r="B56" t="s">
+        <v>165</v>
+      </c>
+      <c r="C56" t="s">
+        <v>166</v>
+      </c>
+      <c r="D56" t="n" s="58">
+        <v>2.45</v>
+      </c>
+      <c r="E56" t="n" s="58">
+        <v>3.1</v>
+      </c>
+      <c r="F56" t="n" s="58">
+        <v>2.45</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>160</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" t="s">
+        <v>167</v>
+      </c>
+      <c r="D57" t="n" s="59">
+        <v>3.7</v>
+      </c>
+      <c r="E57" t="n" s="59">
+        <v>3.5</v>
+      </c>
+      <c r="F57" t="n" s="59">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C58" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" t="n" s="60">
+        <v>3.4</v>
+      </c>
+      <c r="E58" t="n" s="60">
+        <v>3.1</v>
+      </c>
+      <c r="F58" t="n" s="60">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" t="n" s="61">
+        <v>2.7</v>
+      </c>
+      <c r="E59" t="n" s="61">
+        <v>3.3</v>
+      </c>
+      <c r="F59" t="n" s="61">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" t="n" s="62">
+        <v>21.0</v>
+      </c>
+      <c r="E60" t="n" s="62">
+        <v>11.0</v>
+      </c>
+      <c r="F60" t="n" s="62">
+        <v>21.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" t="n" s="63">
+        <v>5.0</v>
+      </c>
+      <c r="E61" t="n" s="63">
+        <v>4.0</v>
+      </c>
+      <c r="F61" t="n" s="63">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62" t="n" s="64">
+        <v>1.33</v>
+      </c>
+      <c r="E62" t="n" s="64">
+        <v>4.8</v>
+      </c>
+      <c r="F62" t="n" s="64">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B63" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" t="n" s="65">
+        <v>2.87</v>
+      </c>
+      <c r="E63" t="n" s="65">
+        <v>3.3</v>
+      </c>
+      <c r="F63" t="n" s="65">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>179</v>
+      </c>
+      <c r="B64" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" t="n" s="66">
+        <v>3.0</v>
+      </c>
+      <c r="E64" t="n" s="66">
+        <v>3.0</v>
+      </c>
+      <c r="F64" t="n" s="66">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>184</v>
+      </c>
+      <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" t="n" s="67">
+        <v>6.5</v>
+      </c>
+      <c r="E65" t="n" s="67">
+        <v>4.75</v>
+      </c>
+      <c r="F65" t="n" s="67">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>184</v>
+      </c>
+      <c r="B66" t="s">
+        <v>187</v>
+      </c>
+      <c r="C66" t="s">
+        <v>188</v>
+      </c>
+      <c r="D66" t="n" s="68">
+        <v>1.35</v>
+      </c>
+      <c r="E66" t="n" s="68">
+        <v>4.8</v>
+      </c>
+      <c r="F66" t="n" s="68">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>184</v>
+      </c>
+      <c r="B67" t="s">
+        <v>189</v>
+      </c>
+      <c r="C67" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" t="n" s="69">
+        <v>3.4</v>
+      </c>
+      <c r="E67" t="n" s="69">
+        <v>3.4</v>
+      </c>
+      <c r="F67" t="n" s="69">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" t="s">
+        <v>192</v>
+      </c>
+      <c r="C68" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" t="n" s="70">
+        <v>3.9</v>
+      </c>
+      <c r="E68" t="n" s="70">
+        <v>3.1</v>
+      </c>
+      <c r="F68" t="n" s="70">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>194</v>
+      </c>
+      <c r="B69" t="s">
+        <v>195</v>
+      </c>
+      <c r="C69" t="s">
+        <v>196</v>
+      </c>
+      <c r="D69" t="n" s="71">
+        <v>3.3</v>
+      </c>
+      <c r="E69" t="n" s="71">
+        <v>3.2</v>
+      </c>
+      <c r="F69" t="n" s="71">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>194</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" t="s">
+        <v>197</v>
+      </c>
+      <c r="D70" t="n" s="72">
+        <v>2.8</v>
+      </c>
+      <c r="E70" t="n" s="72">
+        <v>3.1</v>
+      </c>
+      <c r="F70" t="n" s="72">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>194</v>
+      </c>
+      <c r="B71" t="s">
+        <v>198</v>
+      </c>
+      <c r="C71" t="s">
+        <v>199</v>
+      </c>
+      <c r="D71" t="n" s="73">
+        <v>3.25</v>
+      </c>
+      <c r="E71" t="n" s="73">
+        <v>3.0</v>
+      </c>
+      <c r="F71" t="n" s="73">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>200</v>
+      </c>
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" t="n" s="74">
+        <v>5.0</v>
+      </c>
+      <c r="E72" t="n" s="74">
+        <v>3.9</v>
+      </c>
+      <c r="F72" t="n" s="74">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>200</v>
+      </c>
+      <c r="B73" t="s">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s">
+        <v>204</v>
+      </c>
+      <c r="D73" t="n" s="75">
+        <v>8.0</v>
+      </c>
+      <c r="E73" t="n" s="75">
+        <v>4.4</v>
+      </c>
+      <c r="F73" t="n" s="75">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>200</v>
+      </c>
+      <c r="B74" t="s">
+        <v>205</v>
+      </c>
+      <c r="C74" t="s">
+        <v>206</v>
+      </c>
+      <c r="D74" t="n" s="76">
+        <v>1.5</v>
+      </c>
+      <c r="E74" t="n" s="76">
+        <v>4.2</v>
+      </c>
+      <c r="F74" t="n" s="76">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>207</v>
+      </c>
+      <c r="B75" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" t="s">
+        <v>209</v>
+      </c>
+      <c r="D75" t="n" s="77">
+        <v>2.4</v>
+      </c>
+      <c r="E75" t="n" s="77">
+        <v>3.2</v>
+      </c>
+      <c r="F75" t="n" s="77">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" t="s">
+        <v>210</v>
+      </c>
+      <c r="C76" t="s">
+        <v>211</v>
+      </c>
+      <c r="D76" t="n" s="78">
+        <v>2.1</v>
+      </c>
+      <c r="E76" t="n" s="78">
+        <v>3.3</v>
+      </c>
+      <c r="F76" t="n" s="78">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" t="s">
+        <v>212</v>
+      </c>
+      <c r="C77" t="s">
+        <v>213</v>
+      </c>
+      <c r="D77" t="n" s="79">
+        <v>1.66</v>
+      </c>
+      <c r="E77" t="n" s="79">
+        <v>3.9</v>
+      </c>
+      <c r="F77" t="n" s="79">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>207</v>
+      </c>
+      <c r="B78" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" t="s">
+        <v>215</v>
+      </c>
+      <c r="D78" t="n" s="80">
+        <v>2.87</v>
+      </c>
+      <c r="E78" t="n" s="80">
+        <v>3.2</v>
+      </c>
+      <c r="F78" t="n" s="80">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>207</v>
+      </c>
+      <c r="B79" t="s">
+        <v>216</v>
+      </c>
+      <c r="C79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" t="n" s="81">
+        <v>8.0</v>
+      </c>
+      <c r="E79" t="n" s="81">
+        <v>4.6</v>
+      </c>
+      <c r="F79" t="n" s="81">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>207</v>
+      </c>
+      <c r="B80" t="s">
+        <v>218</v>
+      </c>
+      <c r="C80" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" t="n" s="82">
+        <v>1.44</v>
+      </c>
+      <c r="E80" t="n" s="82">
+        <v>4.4</v>
+      </c>
+      <c r="F80" t="n" s="82">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>220</v>
+      </c>
+      <c r="B81" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" t="s">
+        <v>222</v>
+      </c>
+      <c r="D81" t="n" s="83">
+        <v>3.9</v>
+      </c>
+      <c r="E81" t="n" s="83">
+        <v>3.5</v>
+      </c>
+      <c r="F81" t="n" s="83">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>223</v>
+      </c>
+      <c r="B82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" t="s">
+        <v>225</v>
+      </c>
+      <c r="D82" t="n" s="84">
+        <v>2.9</v>
+      </c>
+      <c r="E82" t="n" s="84">
+        <v>3.0</v>
+      </c>
+      <c r="F82" t="n" s="84">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" t="s">
+        <v>227</v>
+      </c>
+      <c r="C83" t="s">
+        <v>228</v>
+      </c>
+      <c r="D83" t="n" s="85">
+        <v>7.5</v>
+      </c>
+      <c r="E83" t="n" s="85">
+        <v>4.2</v>
+      </c>
+      <c r="F83" t="n" s="85">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>229</v>
+      </c>
+      <c r="B84" t="s">
+        <v>230</v>
+      </c>
+      <c r="C84" t="s">
+        <v>231</v>
+      </c>
+      <c r="D84" t="n" s="86">
+        <v>2.87</v>
+      </c>
+      <c r="E84" t="n" s="86">
+        <v>3.2</v>
+      </c>
+      <c r="F84" t="n" s="86">
+        <v>2.87</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>232</v>
+      </c>
+      <c r="B85" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" t="n" s="87">
+        <v>1.28</v>
+      </c>
+      <c r="E85" t="n" s="87">
+        <v>6.0</v>
+      </c>
+      <c r="F85" t="n" s="87">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C86" t="s">
+        <v>236</v>
+      </c>
+      <c r="D86" t="n" s="88">
+        <v>3.7</v>
+      </c>
+      <c r="E86" t="n" s="88">
+        <v>3.2</v>
+      </c>
+      <c r="F86" t="n" s="88">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>237</v>
+      </c>
+      <c r="B87" t="s">
+        <v>238</v>
+      </c>
+      <c r="C87" t="s">
+        <v>239</v>
+      </c>
+      <c r="D87" t="n" s="89">
+        <v>2.9</v>
+      </c>
+      <c r="E87" t="n" s="89">
+        <v>3.3</v>
+      </c>
+      <c r="F87" t="n" s="89">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>240</v>
+      </c>
+      <c r="B88" t="s">
+        <v>241</v>
+      </c>
+      <c r="C88" t="s">
+        <v>242</v>
+      </c>
+      <c r="D88" t="n" s="90">
+        <v>3.6</v>
+      </c>
+      <c r="E88" t="n" s="90">
+        <v>3.25</v>
+      </c>
+      <c r="F88" t="n" s="90">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>240</v>
+      </c>
+      <c r="B89" t="s">
+        <v>243</v>
+      </c>
+      <c r="C89" t="s">
+        <v>244</v>
+      </c>
+      <c r="D89" t="n" s="91">
+        <v>3.5</v>
+      </c>
+      <c r="E89" t="n" s="91">
+        <v>3.2</v>
+      </c>
+      <c r="F89" t="n" s="91">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>240</v>
+      </c>
+      <c r="B90" t="s">
+        <v>245</v>
+      </c>
+      <c r="C90" t="s">
+        <v>246</v>
+      </c>
+      <c r="D90" t="n" s="92">
+        <v>4.75</v>
+      </c>
+      <c r="E90" t="n" s="92">
+        <v>3.5</v>
+      </c>
+      <c r="F90" t="n" s="92">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" t="s">
+        <v>42</v>
+      </c>
+      <c r="C91" t="s">
+        <v>248</v>
+      </c>
+      <c r="D91" t="n" s="93">
+        <v>5.5</v>
+      </c>
+      <c r="E91" t="n" s="93">
+        <v>4.0</v>
+      </c>
+      <c r="F91" t="n" s="93">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" t="s">
+        <v>250</v>
+      </c>
+      <c r="C92" t="s">
+        <v>251</v>
+      </c>
+      <c r="D92" t="n" s="94">
+        <v>3.4</v>
+      </c>
+      <c r="E92" t="n" s="94">
+        <v>2.9</v>
+      </c>
+      <c r="F92" t="n" s="94">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>252</v>
+      </c>
+      <c r="B93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C93" t="s">
+        <v>254</v>
+      </c>
+      <c r="D93" t="n" s="95">
+        <v>3.25</v>
+      </c>
+      <c r="E93" t="n" s="95">
+        <v>3.2</v>
+      </c>
+      <c r="F93" t="n" s="95">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>255</v>
+      </c>
+      <c r="B94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C94" t="s">
+        <v>257</v>
+      </c>
+      <c r="D94" t="n" s="96">
+        <v>4.33</v>
+      </c>
+      <c r="E94" t="n" s="96">
+        <v>3.7</v>
+      </c>
+      <c r="F94" t="n" s="96">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" t="s">
+        <v>258</v>
+      </c>
+      <c r="C95" t="s">
+        <v>259</v>
+      </c>
+      <c r="D95" t="n" s="97">
+        <v>1.85</v>
+      </c>
+      <c r="E95" t="n" s="97">
+        <v>3.6</v>
+      </c>
+      <c r="F95" t="n" s="97">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>260</v>
+      </c>
+      <c r="B96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C96" t="s">
+        <v>12</v>
+      </c>
+      <c r="D96" t="n" s="98">
+        <v>8.0</v>
+      </c>
+      <c r="E96" t="n" s="98">
+        <v>4.5</v>
+      </c>
+      <c r="F96" t="n" s="98">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>262</v>
+      </c>
+      <c r="B97" t="s">
+        <v>263</v>
+      </c>
+      <c r="C97" t="s">
+        <v>36</v>
+      </c>
+      <c r="D97" t="n" s="99">
+        <v>7.5</v>
+      </c>
+      <c r="E97" t="n" s="99">
+        <v>4.0</v>
+      </c>
+      <c r="F97" t="n" s="99">
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -945,6 +3617,6 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>